--- a/Livro1 (version 1).xlsx
+++ b/Livro1 (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReStart\Repo\Codigo\Projetos\Shows4_ReStart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A13720-FD43-4948-8803-827CA20119D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5EC70-0CEF-4DAD-9497-6ED65651C0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3975" yWindow="3900" windowWidth="8745" windowHeight="4560" activeTab="1" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" activeTab="1" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
   <si>
     <t>Series</t>
   </si>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>UltimoNome</t>
+  </si>
+  <si>
+    <t>Cod2</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>RatingGlobal</t>
   </si>
 </sst>
 </file>
@@ -272,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +312,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -310,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -323,6 +344,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F757E-0092-4438-809F-CC575B34803B}">
   <dimension ref="B2:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1025,13 +1048,29 @@
       <c r="G9" s="9"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1052,8 +1091,11 @@
       <c r="X12" s="7"/>
     </row>
     <row r="13" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
+      <c r="B13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="4" t="s">
@@ -1070,8 +1112,10 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="G14" s="9"/>
       <c r="H14" s="5" t="s">
         <v>30</v>
@@ -1092,13 +1136,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
-      </c>
+    <row r="15" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="5" t="s">
         <v>31</v>
@@ -1120,11 +1162,11 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>57</v>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="G16" s="9"/>
       <c r="I16" s="8"/>
@@ -1138,10 +1180,10 @@
       <c r="R16" s="8"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="9"/>
@@ -1155,13 +1197,11 @@
       <c r="O17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>50</v>
-      </c>
+    <row r="18" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8"/>
       <c r="G18" s="9"/>
       <c r="K18" s="6" t="s">
         <v>54</v>
@@ -1171,64 +1211,71 @@
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>12</v>
+      <c r="B19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="8"/>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B24" s="5" t="s">
-        <v>32</v>
+      <c r="B24" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B26" s="3" t="s">
-        <v>38</v>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
@@ -1250,11 +1297,11 @@
       <c r="X26" s="7"/>
     </row>
     <row r="27" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="3" t="s">
@@ -1267,13 +1314,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>50</v>
-      </c>
+    <row r="28" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="5" t="s">
         <v>32</v>
@@ -1295,11 +1340,11 @@
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>24</v>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="6" t="s">
@@ -1323,10 +1368,10 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G30" s="9"/>
       <c r="I30" s="8"/>
@@ -1343,11 +1388,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="8"/>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="K31" t="s">
         <v>59</v>
@@ -1363,11 +1410,8 @@
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>49</v>
+      <c r="B32" t="s">
+        <v>26</v>
       </c>
       <c r="G32" s="9"/>
       <c r="K32" t="s">
@@ -1385,10 +1429,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G33" s="9"/>
       <c r="K33" t="s">
@@ -1405,12 +1446,6 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="G34" s="9"/>
       <c r="N34" s="6" t="s">
         <v>58</v>
@@ -1471,7 +1506,7 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>50</v>
@@ -1479,7 +1514,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>50</v>
@@ -1487,23 +1522,23 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="6" t="s">
-        <v>33</v>
+      <c r="B45" t="s">
+        <v>65</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B46" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>49</v>
@@ -1511,84 +1546,85 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B49" s="5" t="s">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="6" t="s">
+      <c r="C51" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
+      <c r="C52" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" s="6" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B54" s="4" t="s">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="5" t="s">
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="5" t="s">
+      <c r="C57" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="5"/>
-      <c r="C58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="6"/>

--- a/Livro1 (version 1).xlsx
+++ b/Livro1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReStart\Repo\Codigo\Projetos\Shows4_ReStart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5EC70-0CEF-4DAD-9497-6ED65651C0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F07480-A73B-4F96-8068-3AF08BCF8559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" activeTab="1" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="68">
   <si>
     <t>Series</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>RatingGlobal</t>
+  </si>
+  <si>
+    <t>Escritor</t>
+  </si>
+  <si>
+    <t>IdEscritor</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -346,6 +352,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,15 +862,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F757E-0092-4438-809F-CC575B34803B}">
-  <dimension ref="B2:X59"/>
+  <dimension ref="B2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.4609375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.3046875" customWidth="1"/>
@@ -1244,37 +1252,37 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="9"/>
@@ -1297,10 +1305,10 @@
       <c r="X26" s="7"/>
     </row>
     <row r="27" spans="2:24" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="9"/>
@@ -1340,10 +1348,10 @@
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="9"/>
@@ -1367,10 +1375,10 @@
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="G30" s="9"/>
@@ -1389,10 +1397,10 @@
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="9"/>
@@ -1410,9 +1418,10 @@
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="C32" s="10"/>
       <c r="G32" s="9"/>
       <c r="K32" t="s">
         <v>60</v>
@@ -1428,9 +1437,10 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="C33" s="10"/>
       <c r="G33" s="9"/>
       <c r="K33" t="s">
         <v>32</v>
@@ -1460,34 +1470,34 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1497,42 +1507,42 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1560,75 +1570,91 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B52" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="6" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B56" s="4" t="s">
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B61" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="5" t="s">
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="5" t="s">
+      <c r="C62" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="6"/>
-      <c r="C59" s="8"/>
+      <c r="C63" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Livro1 (version 1).xlsx
+++ b/Livro1 (version 1).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReStart\Repo\Codigo\Projetos\Shows4_ReStart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F07480-A73B-4F96-8068-3AF08BCF8559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956F729-B46D-4783-B593-39D6FE0492BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" activeTab="1" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
+    <workbookView xWindow="43080" yWindow="9450" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
   <si>
     <t>Series</t>
   </si>
@@ -241,13 +242,76 @@
   </si>
   <si>
     <t>IdEscritor</t>
+  </si>
+  <si>
+    <t>EscritorSerie</t>
+  </si>
+  <si>
+    <t>Data Nascimento</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Criar Classe WriterSerie (Ligacao)</t>
+  </si>
+  <si>
+    <t>Criar Classe CastEpisode (Ligacao)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Criar Classe DetalhesAluguer (Ligacao)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pagina Genero</t>
+  </si>
+  <si>
+    <t>Criar Genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Genero </t>
+  </si>
+  <si>
+    <t>Eliminar Genero</t>
+  </si>
+  <si>
+    <t>Pagina Pais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagina Serie </t>
+  </si>
+  <si>
+    <t>Pagina Temporada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar </t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Pagina Episodio</t>
+  </si>
+  <si>
+    <t>Pagina Ator</t>
+  </si>
+  <si>
+    <t>Pagina Escritor</t>
+  </si>
+  <si>
+    <t>Proibido eliminar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +356,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -325,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -333,11 +409,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,11 +510,33 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -369,6 +547,1928 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$17" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$3" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$27" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$28" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$4" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$7" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>93888</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19051</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>168730</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>27229</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>77560</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>16329</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B41D88B-55AE-7B52-04E9-FDF9D2D04647}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>16329</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DBB4DC-DB30-FDAE-DD4E-D9C9B013BB98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>55790</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>8159</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A2E4E4-0580-9058-51F0-C015D3DB66F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>160564</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>10879</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2D4AE3-539D-660D-703C-22D08ED819B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>77560</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>16329</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1213F6B4-B55A-9216-313E-1BEE83C5BAC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>10871</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCAD399-FB1A-9D0D-8968-406388C4620E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>12242</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ABA6D6-0135-015C-396A-C384BB6DF9D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>8160</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08BC7F2-FB82-6A34-2897-B4DF3DD632D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>77560</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>12232</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9662D155-93A0-28B6-9F8C-1E369ACF18A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>88433</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>16329</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015B20C8-E061-EC1D-AC2B-5A05D0EB3F3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>88433</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>10882</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA24CEA7-78EC-7852-8451-A0F83E3A92C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>88433</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>1351</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C5B462-E337-524A-C467-16198640579C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>92529</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>151039</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>10872</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B566E3-739F-DD4E-5AD4-2B43C93C4279}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>151039</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>8150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B737E02-C1E5-3317-259D-F566A45645E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>84364</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>151039</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>2711</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67B93E6-25B5-AD1A-D3D0-80A91C1AC2DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>84364</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>151039</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>8150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C945AE80-4A1F-5F38-53AB-BBDAE64CBB20}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>84364</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>151039</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66689</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>1350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B825732B-C72C-791D-ECF0-9AF9F09AEC49}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>92529</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060C71B9-C393-3489-811C-DD7185DF92CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>106136</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>151039</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>85711</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>8150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7776933C-26AB-E64E-421E-1DF02D8FF9B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>106136</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>151039</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>85711</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>8150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22D5668-0A9F-768B-9AF6-108736D51D0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>106136</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>85711</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>179615</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADA8E3D-4360-AA88-7C70-F8CCFEA6FF80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>54429</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>16329</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43328A33-A3CB-3814-BB04-2142D2DD7BF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>68036</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>151040</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50334</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>12234</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6238E713-70CE-A9A4-FAE0-17BFA2FDACC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>10882</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7908A8-6CE6-C1FA-06D8-080DFADDFC69}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>48986</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>25866</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>10873</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA6774F-8B72-F0F2-4273-55DC5C6EBE31}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,10 +2962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F757E-0092-4438-809F-CC575B34803B}">
-  <dimension ref="B2:X63"/>
+  <dimension ref="B2:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1547,7 +3647,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -1555,7 +3655,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -1563,100 +3663,1052 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="49" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B49" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B52" s="4" t="s">
+      <c r="B50" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B54" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B57" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="8" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B60" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="2:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B61" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="5" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F6466F-1FBF-4C8C-AC2F-1FF827E19F62}">
+  <dimension ref="D1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3828125" customWidth="1"/>
+    <col min="8" max="8" width="11.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17"/>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D10" s="18"/>
+      <c r="E10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D11" s="18"/>
+      <c r="E11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="20"/>
+      <c r="E12" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D13" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="17"/>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D14" s="18"/>
+      <c r="E14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D15" s="18"/>
+      <c r="E15" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="20"/>
+      <c r="E16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="17"/>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D18" s="18"/>
+      <c r="E18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D19" s="18"/>
+      <c r="E19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="20"/>
+      <c r="E20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="17"/>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D22" s="18"/>
+      <c r="E22" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D23" s="18"/>
+      <c r="E23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="20"/>
+      <c r="E24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="17"/>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D26" s="18"/>
+      <c r="E26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D27" s="18"/>
+      <c r="E27" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="20"/>
+      <c r="E28" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D29" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D30" s="18"/>
+      <c r="E30" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D31" s="18"/>
+      <c r="E31" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="20"/>
+      <c r="E32" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D4 D5:E35">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H2=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId3" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>92529</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>21771</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>283029</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>174171</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId4" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>174171</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>27214</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId5" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>97971</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>81643</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>21771</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId6" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>21771</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId7" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>59871</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>16329</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId8" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>157843</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>10886</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId9" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>97971</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>81643</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>21771</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId10" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>10886</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId11" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>16329</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId12" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>16329</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId13" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>97971</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>81643</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>10886</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId14" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>103414</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>92529</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>21771</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId15" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>103414</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>92529</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>16329</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId16" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>103414</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>92529</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>5443</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId17" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>92529</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>5443</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId18" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>65314</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>5443</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId19" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>81643</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId20" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>81643</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>5443</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId21" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>81643</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId22" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>92529</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>141514</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>174171</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId23" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>108857</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>5443</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId24" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>108857</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>5443</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId25" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>108857</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>141514</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>87086</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>179614</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId26" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>59871</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>21771</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId27" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>48986</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>10886</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId28" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>59871</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>163286</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>16329</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId29" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>48986</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>27214</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>10886</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/Livro1 (version 1).xlsx
+++ b/Livro1 (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReStart\Repo\Codigo\Projetos\Shows4_ReStart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956F729-B46D-4783-B593-39D6FE0492BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34255A4-02D7-494A-B7A0-CA0EC8270110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="9450" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
+    <workbookView xWindow="43080" yWindow="9450" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="90">
   <si>
     <t>Series</t>
   </si>
@@ -305,13 +305,16 @@
   </si>
   <si>
     <t>Proibido eliminar</t>
+  </si>
+  <si>
+    <t>Pagina Genero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,11 +365,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -493,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -511,9 +509,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -521,14 +516,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -554,43 +557,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,19 +601,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,11 +625,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,15 +667,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>93888</xdr:colOff>
+          <xdr:colOff>92529</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>19051</xdr:rowOff>
+          <xdr:rowOff>21771</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>283029</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>168730</xdr:rowOff>
+          <xdr:rowOff>168729</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -731,15 +734,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>87086</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>174171</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
+          <xdr:colOff>68037</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>27229</xdr:rowOff>
+          <xdr:rowOff>29937</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -798,13 +801,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>97971</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>77560</xdr:colOff>
+          <xdr:colOff>84363</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
@@ -816,7 +819,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B41D88B-55AE-7B52-04E9-FDF9D2D04647}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -865,13 +868,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>87086</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
+          <xdr:colOff>68037</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
@@ -883,7 +886,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DBB4DC-DB30-FDAE-DD4E-D9C9B013BB98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -934,13 +937,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>55790</xdr:colOff>
+          <xdr:colOff>54429</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>8159</xdr:rowOff>
+          <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -950,7 +953,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A2E4E4-0580-9058-51F0-C015D3DB66F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -999,15 +1002,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>87086</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>160564</xdr:rowOff>
+          <xdr:rowOff>157843</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
+          <xdr:colOff>68037</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>10879</xdr:rowOff>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1017,7 +1020,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2D4AE3-539D-660D-703C-22D08ED819B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1066,13 +1069,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>97971</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>77560</xdr:colOff>
+          <xdr:colOff>84363</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
@@ -1084,7 +1087,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1213F6B4-B55A-9216-313E-1BEE83C5BAC5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1133,15 +1136,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>87086</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
+          <xdr:colOff>68037</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>10871</xdr:rowOff>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1151,7 +1154,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCAD399-FB1A-9D0D-8968-406388C4620E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1200,15 +1203,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>87086</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
+          <xdr:colOff>68037</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>12242</xdr:rowOff>
+          <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1218,7 +1221,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ABA6D6-0135-015C-396A-C384BB6DF9D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1267,15 +1270,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>8160</xdr:rowOff>
+          <xdr:colOff>57151</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12246</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1285,7 +1288,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08BC7F2-FB82-6A34-2897-B4DF3DD632D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1334,15 +1337,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:colOff>97971</xdr:colOff>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>77560</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>12232</xdr:rowOff>
+          <xdr:colOff>84363</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1352,7 +1355,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9662D155-93A0-28B6-9F8C-1E369ACF18A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1401,14 +1404,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:colOff>103414</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>88433</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:colOff>92529</xdr:colOff>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1419,7 +1422,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015B20C8-E061-EC1D-AC2B-5A05D0EB3F3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,15 +1471,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:colOff>103414</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>88433</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>10882</xdr:rowOff>
+          <xdr:colOff>92529</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1486,7 +1489,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA24CEA7-78EC-7852-8451-A0F83E3A92C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,15 +1538,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:colOff>103414</xdr:colOff>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>88433</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>1351</xdr:rowOff>
+          <xdr:colOff>92529</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1553,7 +1556,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C5B462-E337-524A-C467-16198640579C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1603,14 +1606,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>92529</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>151039</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>10872</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1620,7 +1623,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B566E3-739F-DD4E-5AD4-2B43C93C4279}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1670,14 +1673,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>151039</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>8150</xdr:rowOff>
+          <xdr:colOff>68037</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1687,7 +1690,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B737E02-C1E5-3317-259D-F566A45645E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1736,15 +1739,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>84364</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>151039</xdr:rowOff>
+          <xdr:colOff>81643</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>2711</xdr:rowOff>
+          <xdr:colOff>68037</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1754,7 +1757,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67B93E6-25B5-AD1A-D3D0-80A91C1AC2DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1803,15 +1806,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>84364</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>151039</xdr:rowOff>
+          <xdr:colOff>81643</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>8150</xdr:rowOff>
+          <xdr:colOff>68037</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1821,7 +1824,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C945AE80-4A1F-5F38-53AB-BBDAE64CBB20}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1870,15 +1873,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>84364</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>151039</xdr:rowOff>
+          <xdr:colOff>81643</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66689</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>1350</xdr:rowOff>
+          <xdr:colOff>68037</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1888,7 +1891,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B825732B-C72C-791D-ECF0-9AF9F09AEC49}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1938,14 +1941,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>92529</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>141514</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>168729</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1955,7 +1958,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060C71B9-C393-3489-811C-DD7185DF92CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2004,15 +2007,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>106136</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>151039</xdr:rowOff>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>85711</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>8150</xdr:rowOff>
+          <xdr:colOff>84363</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2022,7 +2025,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7776933C-26AB-E64E-421E-1DF02D8FF9B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2071,15 +2074,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>106136</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>151039</xdr:rowOff>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>85711</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>8150</xdr:rowOff>
+          <xdr:colOff>84363</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2089,7 +2092,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22D5668-0A9F-768B-9AF6-108736D51D0A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2138,15 +2141,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>106136</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>141514</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>85711</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>179615</xdr:rowOff>
+          <xdr:colOff>84363</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>182337</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2156,7 +2159,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADA8E3D-4360-AA88-7C70-F8CCFEA6FF80}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2207,7 +2210,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
@@ -2223,7 +2226,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43328A33-A3CB-3814-BB04-2142D2DD7BF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2272,15 +2275,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68036</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>151040</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>50334</xdr:colOff>
+          <xdr:colOff>46263</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>12234</xdr:rowOff>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2290,7 +2293,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6238E713-70CE-A9A4-FAE0-17BFA2FDACC5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2339,15 +2342,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:colOff>59871</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>163286</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>10882</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2357,7 +2360,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7908A8-6CE6-C1FA-06D8-080DFADDFC69}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2407,14 +2410,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>48986</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>25866</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>10873</xdr:rowOff>
+          <xdr:colOff>29937</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>8163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2424,7 +2427,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA6774F-8B72-F0F2-4273-55DC5C6EBE31}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2964,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F757E-0092-4438-809F-CC575B34803B}">
   <dimension ref="B2:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3786,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F6466F-1FBF-4C8C-AC2F-1FF827E19F62}">
-  <dimension ref="D1:H32"/>
+  <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3801,39 +3804,39 @@
     <col min="8" max="8" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="23"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="23"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D4" s="15" t="s">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="23"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>74</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E6" t="s">
         <v>75</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
         <v>76</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>77</v>
       </c>
@@ -3868,233 +3871,267 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D9" s="16" t="s">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="16"/>
       <c r="H9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D10" s="18"/>
-      <c r="E10" s="23" t="s">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D10" s="17"/>
+      <c r="E10" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D11" s="18"/>
-      <c r="E11" s="23" t="s">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D11" s="17"/>
+      <c r="E11" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="20"/>
-      <c r="E12" s="24" t="s">
+    <row r="12" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="19"/>
+      <c r="E12" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D13" s="16" t="s">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D14" s="17"/>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D15" s="17"/>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="19"/>
+      <c r="E16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="17"/>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D14" s="18"/>
-      <c r="E14" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D15" s="18"/>
-      <c r="E15" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="20"/>
-      <c r="E16" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="16"/>
       <c r="H17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D18" s="18"/>
-      <c r="E18" s="23" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="18"/>
       <c r="H18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D19" s="18"/>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="18"/>
       <c r="H19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D20" s="20"/>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="H20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="17"/>
+      <c r="D21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="16"/>
       <c r="H21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D22" s="18"/>
-      <c r="E22" s="23" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="18"/>
       <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D23" s="18"/>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="18"/>
       <c r="H23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="20"/>
-      <c r="E24" s="24" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="20"/>
       <c r="H24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D25" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="17"/>
+      <c r="D25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="16"/>
       <c r="H25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D26" s="18"/>
-      <c r="E26" s="23" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="18"/>
       <c r="H26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D27" s="18"/>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="18"/>
       <c r="H27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="20"/>
-      <c r="E28" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="21"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="20"/>
       <c r="H28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="16"/>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D30" s="17"/>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D31" s="17"/>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="19"/>
+      <c r="E32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D33" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D30" s="18"/>
-      <c r="E30" s="23" t="s">
+      <c r="E33" s="21"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D34" s="17"/>
+      <c r="E34" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D31" s="18"/>
-      <c r="E31" s="23" t="s">
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D35" s="17"/>
+      <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="20"/>
-      <c r="E32" s="25" t="s">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D36" s="19"/>
+      <c r="E36" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4102,9 +4139,14 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D4 D5:E35">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="D2:D4 D5:E12 D17:E36">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H2=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:E16">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$H37=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4318,15 +4360,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>87086</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>163286</xdr:rowOff>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>70757</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>16329</xdr:rowOff>
+                    <xdr:colOff>59871</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>10886</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4341,14 +4383,14 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>97971</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>81643</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>10886</xdr:rowOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>21771</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4363,14 +4405,14 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>103414</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>163286</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>92529</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>21771</xdr:rowOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>32657</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4385,14 +4427,14 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>103414</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>163286</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>92529</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>16329</xdr:rowOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>21771</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4407,13 +4449,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>103414</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>92529</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>5443</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4429,13 +4471,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>92529</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>5443</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4451,13 +4493,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>65314</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>5443</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4468,50 +4510,6 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1046" r:id="rId19" name="Check Box 22">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>81643</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>70757</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId20" name="Check Box 23">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>81643</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>70757</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>5443</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId21" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4533,19 +4531,63 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId20" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>81643</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>5443</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId21" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>81643</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>70757</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="1049" r:id="rId22" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>92529</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>141514</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>174171</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4561,13 +4603,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>108857</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>87086</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>5443</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4583,13 +4625,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>108857</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>87086</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>5443</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4605,13 +4647,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>108857</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>141514</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>87086</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>179614</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4671,13 +4713,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>59871</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>163286</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>16329</xdr:rowOff>
                   </to>
                 </anchor>
@@ -4693,13 +4735,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>48986</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>27214</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>10886</xdr:rowOff>
                   </to>
                 </anchor>

--- a/Livro1 (version 1).xlsx
+++ b/Livro1 (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReStart\Repo\Codigo\Projetos\Shows4_ReStart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34255A4-02D7-494A-B7A0-CA0EC8270110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE809D81-A3E8-4634-9333-9CD0DD2446A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="9450" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" activeTab="2" xr2:uid="{0EC62427-0F97-4318-B9E3-3BF0C141DC24}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Pagina Pais</t>
   </si>
   <si>
-    <t xml:space="preserve">Pagina Serie </t>
-  </si>
-  <si>
     <t>Pagina Temporada</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>Eliminar</t>
   </si>
   <si>
-    <t>Pagina Episodio</t>
-  </si>
-  <si>
     <t>Pagina Ator</t>
   </si>
   <si>
@@ -308,6 +302,12 @@
   </si>
   <si>
     <t>Pagina Genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagina Episodio </t>
+  </si>
+  <si>
+    <t>Pagina Serie</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -520,6 +526,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,15 +658,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$H$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$H$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$H$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$H$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,7 +684,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>283029</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>168729</xdr:rowOff>
+          <xdr:rowOff>174171</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -740,9 +749,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>29937</xdr:rowOff>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -807,9 +816,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>84363</xdr:colOff>
+          <xdr:colOff>81643</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>16329</xdr:rowOff>
+          <xdr:rowOff>21771</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -874,9 +883,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>16329</xdr:rowOff>
+          <xdr:rowOff>21771</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -941,7 +950,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>54429</xdr:colOff>
+          <xdr:colOff>59871</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
@@ -1008,9 +1017,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1075,9 +1084,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>84363</xdr:colOff>
+          <xdr:colOff>81643</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>16329</xdr:rowOff>
+          <xdr:rowOff>21771</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1142,9 +1151,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1209,7 +1218,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>16329</xdr:rowOff>
         </xdr:to>
@@ -1276,9 +1285,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>57151</xdr:colOff>
+          <xdr:colOff>59871</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>12246</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1343,9 +1352,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>84363</xdr:colOff>
+          <xdr:colOff>81643</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>21771</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1412,7 +1421,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>92529</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>16329</xdr:rowOff>
+          <xdr:rowOff>32657</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1479,7 +1488,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>92529</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>16329</xdr:rowOff>
+          <xdr:rowOff>21771</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1546,7 +1555,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>92529</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>5443</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1613,7 +1622,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>5443</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1678,9 +1687,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>65314</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>5443</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1745,7 +1754,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1812,9 +1821,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>5443</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1879,7 +1888,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68037</xdr:colOff>
+          <xdr:colOff>70757</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1948,7 +1957,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>168729</xdr:rowOff>
+          <xdr:rowOff>174171</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2013,9 +2022,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>84363</xdr:colOff>
+          <xdr:colOff>87086</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>5443</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2080,9 +2089,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>84363</xdr:colOff>
+          <xdr:colOff>87086</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>5443</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2147,9 +2156,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>84363</xdr:colOff>
+          <xdr:colOff>87086</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>182337</xdr:rowOff>
+          <xdr:rowOff>179614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2214,9 +2223,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>54429</xdr:colOff>
+          <xdr:colOff>59871</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>16329</xdr:rowOff>
+          <xdr:rowOff>21771</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2281,9 +2290,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>46263</xdr:colOff>
+          <xdr:colOff>48986</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2415,9 +2424,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>29937</xdr:colOff>
+          <xdr:colOff>27214</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>8163</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2967,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F757E-0092-4438-809F-CC575B34803B}">
   <dimension ref="B2:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3791,8 +3800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F6466F-1FBF-4C8C-AC2F-1FF827E19F62}">
   <dimension ref="C1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3887,67 +3896,67 @@
     <row r="10" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D10" s="17"/>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="18"/>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D11" s="17"/>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="18"/>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D12" s="19"/>
       <c r="E12" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="20"/>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>89</v>
+      <c r="D13" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D14" s="17"/>
+      <c r="D14" s="25"/>
       <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D15" s="25"/>
+      <c r="E15" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D15" s="17"/>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="19"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D17" s="15" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="16"/>
@@ -3958,7 +3967,7 @@
     <row r="18" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D18" s="17"/>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="18"/>
       <c r="H18" t="b">
@@ -3968,7 +3977,7 @@
     <row r="19" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D19" s="17"/>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="18"/>
       <c r="H19" t="b">
@@ -3978,7 +3987,7 @@
     <row r="20" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D20" s="19"/>
       <c r="E20" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="20"/>
       <c r="H20" t="b">
@@ -3987,7 +3996,7 @@
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16"/>
@@ -3998,7 +4007,7 @@
     <row r="22" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D22" s="17"/>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="18"/>
       <c r="H22" t="b">
@@ -4008,7 +4017,7 @@
     <row r="23" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D23" s="17"/>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="18"/>
       <c r="H23" t="b">
@@ -4018,7 +4027,7 @@
     <row r="24" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D24" s="19"/>
       <c r="E24" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="20"/>
       <c r="H24" t="b">
@@ -4027,7 +4036,7 @@
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D25" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="16"/>
@@ -4038,7 +4047,7 @@
     <row r="26" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D26" s="17"/>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="18"/>
       <c r="H26" t="b">
@@ -4048,7 +4057,7 @@
     <row r="27" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D27" s="17"/>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="18"/>
       <c r="H27" t="b">
@@ -4058,7 +4067,7 @@
     <row r="28" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D28" s="19"/>
       <c r="E28" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="20"/>
       <c r="H28" t="b">
@@ -4067,7 +4076,7 @@
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D29" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="16"/>
@@ -4078,7 +4087,7 @@
     <row r="30" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D30" s="17"/>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="18"/>
       <c r="H30" t="b">
@@ -4088,7 +4097,7 @@
     <row r="31" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D31" s="17"/>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="18"/>
       <c r="H31" t="b">
@@ -4098,7 +4107,7 @@
     <row r="32" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D32" s="19"/>
       <c r="E32" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="20"/>
       <c r="H32" t="b">
@@ -4107,7 +4116,7 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="16"/>
@@ -4115,21 +4124,21 @@
     <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34" s="17"/>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35" s="17"/>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D36" s="19"/>
       <c r="E36" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36" s="20"/>
     </row>
